--- a/resources/startups.xlsx
+++ b/resources/startups.xlsx
@@ -647,9 +647,6 @@
     <t>Adolfo Menezes Melito e Adriano Miyagi Melito</t>
   </si>
   <si>
-    <t>adriano.melito@myfi rstipo.com.br</t>
-  </si>
-  <si>
     <t>Marcela Gonçalves Drummond, Mariana de Queiroz Bertelli, Rafael Melo Palhares</t>
   </si>
   <si>
@@ -2541,6 +2538,9 @@
   </si>
   <si>
     <t>token-lab</t>
+  </si>
+  <si>
+    <t>adriano.melito@myfirstipo.com.br</t>
   </si>
 </sst>
 </file>
@@ -2591,7 +2591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2609,6 +2609,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2928,8 +2931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2962,13 +2965,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2985,16 +2988,16 @@
         <v>2007</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>431</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3020,7 +3023,7 @@
         <v>119</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3031,13 +3034,13 @@
         <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D4" s="1">
         <v>2016</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>122</v>
@@ -3046,33 +3049,33 @@
         <v>123</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5" s="1">
         <v>2014</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3083,22 +3086,22 @@
         <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D6" s="1">
         <v>2015</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>126</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3124,7 +3127,7 @@
         <v>130</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3144,13 +3147,13 @@
         <v>132</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3167,16 +3170,16 @@
         <v>2017</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>135</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3202,7 +3205,7 @@
         <v>139</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3228,7 +3231,7 @@
         <v>144</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -3239,22 +3242,22 @@
         <v>145</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D12" s="1">
         <v>2017</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -3265,22 +3268,22 @@
         <v>146</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D13" s="1">
         <v>2010</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -3297,7 +3300,7 @@
         <v>2012</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>148</v>
@@ -3306,7 +3309,7 @@
         <v>149</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3332,7 +3335,7 @@
         <v>153</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3343,13 +3346,13 @@
         <v>154</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D16" s="1">
         <v>2014</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>155</v>
@@ -3358,7 +3361,7 @@
         <v>156</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -3375,16 +3378,16 @@
         <v>2013</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3395,13 +3398,13 @@
         <v>159</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D18" s="1">
         <v>2015</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>160</v>
@@ -3410,7 +3413,7 @@
         <v>161</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -3427,24 +3430,24 @@
         <v>2013</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>459</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>461</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>196</v>
@@ -3453,16 +3456,16 @@
         <v>2015</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>464</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3479,7 +3482,7 @@
         <v>2017</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>167</v>
@@ -3488,7 +3491,7 @@
         <v>168</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -3514,7 +3517,7 @@
         <v>170</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -3525,13 +3528,13 @@
         <v>171</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D23" s="1">
         <v>2016</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>172</v>
@@ -3540,7 +3543,7 @@
         <v>173</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3551,13 +3554,13 @@
         <v>174</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D24" s="1">
         <v>2015</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>175</v>
@@ -3566,7 +3569,7 @@
         <v>176</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3577,13 +3580,13 @@
         <v>177</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D25" s="1">
         <v>2015</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>178</v>
@@ -3592,7 +3595,7 @@
         <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -3603,13 +3606,13 @@
         <v>180</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D26" s="1">
         <v>2008</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>182</v>
@@ -3618,7 +3621,7 @@
         <v>183</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3635,7 +3638,7 @@
         <v>2016</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>186</v>
@@ -3644,7 +3647,7 @@
         <v>187</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3670,7 +3673,7 @@
         <v>191</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3681,13 +3684,13 @@
         <v>192</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D29" s="1">
         <v>2017</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>193</v>
@@ -3696,7 +3699,7 @@
         <v>194</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -3704,25 +3707,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D30" s="1">
         <v>2017</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3739,16 +3742,16 @@
         <v>2017</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>197</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3774,7 +3777,7 @@
         <v>201</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -3782,7 +3785,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>202</v>
@@ -3796,11 +3799,11 @@
       <c r="F33" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>205</v>
+      <c r="G33" s="7" t="s">
+        <v>836</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -3808,7 +3811,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>141</v>
@@ -3817,16 +3820,16 @@
         <v>2010</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -3834,25 +3837,25 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="D35" s="1">
         <v>2010</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>482</v>
-      </c>
       <c r="H35" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -3860,25 +3863,25 @@
         <v>110</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="D36" s="1">
         <v>2010</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="H36" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -3886,25 +3889,25 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D37" s="1">
         <v>2016</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>485</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -3912,25 +3915,25 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D38" s="1">
         <v>2016</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="H38" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -3938,51 +3941,51 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D39" s="1">
         <v>2016</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>795</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="D40" s="1">
         <v>2016</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>492</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -3990,25 +3993,25 @@
         <v>109</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D41" s="1">
         <v>2014</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>496</v>
-      </c>
       <c r="H41" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -4016,33 +4019,33 @@
         <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D42" s="1">
         <v>2016</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="H42" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>116</v>
@@ -4051,16 +4054,16 @@
         <v>2016</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -4068,25 +4071,25 @@
         <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D44" s="1">
         <v>2012</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -4094,7 +4097,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>116</v>
@@ -4103,16 +4106,16 @@
         <v>2016</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="H45" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -4120,7 +4123,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>116</v>
@@ -4129,16 +4132,16 @@
         <v>2018</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="H46" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -4146,7 +4149,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>116</v>
@@ -4158,13 +4161,13 @@
         <v>189</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="H47" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -4172,25 +4175,25 @@
         <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D48" s="1">
         <v>2014</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="H48" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -4198,10 +4201,10 @@
         <v>43</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="D49" s="1">
         <v>2004</v>
@@ -4210,13 +4213,13 @@
         <v>189</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="H49" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -4224,7 +4227,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>116</v>
@@ -4236,13 +4239,13 @@
         <v>189</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="H50" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -4250,7 +4253,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>181</v>
@@ -4262,13 +4265,13 @@
         <v>189</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="H51" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -4276,7 +4279,7 @@
         <v>108</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>116</v>
@@ -4285,16 +4288,16 @@
         <v>2018</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="H52" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -4302,33 +4305,33 @@
         <v>46</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D53" s="1">
         <v>2015</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="H53" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>116</v>
@@ -4337,16 +4340,16 @@
         <v>2016</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>511</v>
-      </c>
       <c r="H54" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -4354,7 +4357,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>116</v>
@@ -4363,16 +4366,16 @@
         <v>2016</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="H55" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -4380,25 +4383,25 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D56" s="1">
         <v>2018</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="H56" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -4406,25 +4409,25 @@
         <v>107</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D57" s="1">
         <v>2013</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -4432,25 +4435,25 @@
         <v>49</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D58" s="1">
         <v>2016</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="H58" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -4458,7 +4461,7 @@
         <v>106</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>125</v>
@@ -4467,16 +4470,16 @@
         <v>2011</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="H59" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -4484,7 +4487,7 @@
         <v>105</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>134</v>
@@ -4493,42 +4496,42 @@
         <v>2004</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="G60" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D61" s="1">
         <v>2017</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>523</v>
-      </c>
       <c r="H61" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -4536,25 +4539,25 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D62" s="1">
         <v>2016</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -4562,25 +4565,25 @@
         <v>51</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D63" s="1">
         <v>2005</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>526</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -4588,25 +4591,25 @@
         <v>52</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D64" s="1">
         <v>2016</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -4614,7 +4617,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>116</v>
@@ -4623,16 +4626,16 @@
         <v>2016</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="H65" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -4640,7 +4643,7 @@
         <v>54</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>116</v>
@@ -4649,16 +4652,16 @@
         <v>2014</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="H66" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -4666,7 +4669,7 @@
         <v>55</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>116</v>
@@ -4675,16 +4678,16 @@
         <v>2010</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="G67" s="5" t="s">
-        <v>530</v>
-      </c>
       <c r="H67" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -4692,25 +4695,25 @@
         <v>56</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D68" s="1">
         <v>2006</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G68" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>532</v>
-      </c>
       <c r="H68" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -4718,7 +4721,7 @@
         <v>57</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>202</v>
@@ -4727,16 +4730,16 @@
         <v>1993</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F69" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="H69" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -4744,7 +4747,7 @@
         <v>104</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>141</v>
@@ -4753,42 +4756,42 @@
         <v>2015</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>534</v>
-      </c>
       <c r="G70" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D71" s="1">
         <v>2013</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="H71" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -4796,7 +4799,7 @@
         <v>58</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>116</v>
@@ -4805,16 +4808,16 @@
         <v>2015</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>536</v>
-      </c>
       <c r="G72" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -4822,7 +4825,7 @@
         <v>59</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>116</v>
@@ -4831,16 +4834,16 @@
         <v>2013</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F73" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="H73" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -4848,22 +4851,22 @@
         <v>60</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D74" s="1">
         <v>2015</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -4871,7 +4874,7 @@
         <v>61</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>116</v>
@@ -4880,16 +4883,16 @@
         <v>2013</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="G75" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -4897,25 +4900,25 @@
         <v>62</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D76" s="1">
         <v>2002</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="H76" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -4923,7 +4926,7 @@
         <v>63</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>116</v>
@@ -4932,16 +4935,16 @@
         <v>2016</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="H77" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -4949,7 +4952,7 @@
         <v>64</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>116</v>
@@ -4958,16 +4961,16 @@
         <v>2013</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>543</v>
-      </c>
       <c r="H78" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -4975,7 +4978,7 @@
         <v>65</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>134</v>
@@ -4984,16 +4987,16 @@
         <v>2002</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="H79" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -5001,25 +5004,25 @@
         <v>66</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="D80" s="1">
         <v>2013</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F80" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="H80" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -5027,7 +5030,7 @@
         <v>67</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>141</v>
@@ -5036,16 +5039,16 @@
         <v>2006</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="H81" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -5053,7 +5056,7 @@
         <v>68</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>116</v>
@@ -5062,24 +5065,24 @@
         <v>2015</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="H82" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>116</v>
@@ -5088,39 +5091,39 @@
         <v>2016</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>551</v>
-      </c>
       <c r="H83" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="D84" s="1">
         <v>2015</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>556</v>
-      </c>
       <c r="H84" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -5128,33 +5131,33 @@
         <v>103</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D85" s="1">
         <v>2017</v>
       </c>
       <c r="E85" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="G85" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="G85" s="5" t="s">
-        <v>559</v>
-      </c>
       <c r="H85" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>116</v>
@@ -5163,24 +5166,24 @@
         <v>2016</v>
       </c>
       <c r="E86" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="G86" s="5" t="s">
-        <v>564</v>
-      </c>
       <c r="H86" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>116</v>
@@ -5189,16 +5192,16 @@
         <v>2016</v>
       </c>
       <c r="E87" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="G87" s="5" t="s">
-        <v>569</v>
-      </c>
       <c r="H87" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -5206,25 +5209,25 @@
         <v>102</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D88" s="1">
         <v>2015</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="H88" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -5232,25 +5235,25 @@
         <v>101</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D89" s="1">
         <v>2017</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="H89" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -5258,25 +5261,25 @@
         <v>69</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D90" s="1">
         <v>2013</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F90" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="H90" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -5284,25 +5287,25 @@
         <v>70</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D91" s="1">
         <v>2007</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>574</v>
-      </c>
       <c r="H91" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -5310,25 +5313,25 @@
         <v>100</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="D92" s="1">
         <v>2007</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F92" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="H92" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -5336,25 +5339,25 @@
         <v>71</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="D93" s="1">
         <v>2005</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="H93" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -5362,25 +5365,25 @@
         <v>72</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D94" s="1">
         <v>2016</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F94" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="H94" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -5388,7 +5391,7 @@
         <v>73</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>116</v>
@@ -5397,16 +5400,16 @@
         <v>2017</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F95" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="H95" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -5414,25 +5417,25 @@
         <v>74</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D96" s="1">
         <v>2016</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>579</v>
-      </c>
       <c r="G96" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -5440,7 +5443,7 @@
         <v>75</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>116</v>
@@ -5449,16 +5452,16 @@
         <v>2010</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -5466,25 +5469,25 @@
         <v>76</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D98" s="1">
         <v>2005</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F98" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="H98" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -5492,25 +5495,25 @@
         <v>77</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D99" s="1">
         <v>2016</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="H99" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -5518,48 +5521,48 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D100" s="1">
         <v>2017</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="D101" s="1">
         <v>2016</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="G101" s="1" t="s">
-        <v>590</v>
-      </c>
       <c r="H101" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -5567,51 +5570,51 @@
         <v>98</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D102" s="1">
         <v>2015</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>592</v>
-      </c>
       <c r="G102" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>595</v>
       </c>
       <c r="D103" s="1">
         <v>2015</v>
       </c>
       <c r="E103" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>598</v>
-      </c>
       <c r="H103" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -5619,25 +5622,25 @@
         <v>78</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="D104" s="1">
         <v>2011</v>
       </c>
       <c r="E104" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="H104" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -5645,7 +5648,7 @@
         <v>79</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>141</v>
@@ -5654,16 +5657,16 @@
         <v>2014</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>602</v>
-      </c>
       <c r="G105" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -5671,25 +5674,25 @@
         <v>80</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D106" s="1">
         <v>2008</v>
       </c>
       <c r="E106" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>604</v>
-      </c>
       <c r="G106" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -5697,25 +5700,25 @@
         <v>81</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D107" s="1">
         <v>2017</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>606</v>
-      </c>
       <c r="G107" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -5723,25 +5726,25 @@
         <v>82</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="D108" s="1">
         <v>2005</v>
       </c>
       <c r="E108" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>608</v>
-      </c>
       <c r="G108" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -5749,25 +5752,25 @@
         <v>97</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D109" s="1">
         <v>2016</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G109" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="G109" s="5" t="s">
-        <v>610</v>
-      </c>
       <c r="H109" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -5775,25 +5778,25 @@
         <v>83</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D110" s="1">
         <v>2013</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F110" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="H110" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -5801,7 +5804,7 @@
         <v>84</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>116</v>
@@ -5813,13 +5816,13 @@
         <v>151</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="H111" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -5827,7 +5830,7 @@
         <v>85</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>116</v>
@@ -5836,16 +5839,16 @@
         <v>2017</v>
       </c>
       <c r="E112" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="H112" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -5853,10 +5856,10 @@
         <v>86</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D113" s="1">
         <v>2015</v>
@@ -5865,65 +5868,65 @@
         <v>189</v>
       </c>
       <c r="F113" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="H113" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>613</v>
       </c>
       <c r="D114" s="1">
         <v>2016</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>615</v>
-      </c>
       <c r="G114" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C115" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="D115" s="1">
         <v>2017</v>
       </c>
       <c r="E115" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="H115" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -5931,25 +5934,25 @@
         <v>87</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D116" s="1">
         <v>2014</v>
       </c>
       <c r="E116" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>623</v>
-      </c>
       <c r="G116" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -5957,25 +5960,25 @@
         <v>88</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D117" s="1">
         <v>2015</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="H117" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -5983,7 +5986,7 @@
         <v>89</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>116</v>
@@ -5992,16 +5995,16 @@
         <v>2014</v>
       </c>
       <c r="E118" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="H118" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -6009,33 +6012,33 @@
         <v>90</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D119" s="1">
         <v>2015</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="H119" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>116</v>
@@ -6044,16 +6047,16 @@
         <v>2015</v>
       </c>
       <c r="E120" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="G120" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>630</v>
-      </c>
       <c r="H120" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -6061,7 +6064,7 @@
         <v>91</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>116</v>
@@ -6070,16 +6073,16 @@
         <v>2016</v>
       </c>
       <c r="E121" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="G121" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="H121" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -6087,25 +6090,25 @@
         <v>92</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D122" s="1">
         <v>2013</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F122" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="H122" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -6113,33 +6116,33 @@
         <v>93</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D123" s="1">
         <v>2016</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F123" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="H123" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>116</v>
@@ -6148,16 +6151,16 @@
         <v>2018</v>
       </c>
       <c r="E124" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="G124" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>637</v>
-      </c>
       <c r="H124" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -6165,51 +6168,51 @@
         <v>96</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D125" s="1">
         <v>2015</v>
       </c>
       <c r="E125" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>640</v>
-      </c>
       <c r="H125" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D126" s="1">
         <v>2017</v>
       </c>
       <c r="E126" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>644</v>
-      </c>
       <c r="H126" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -6217,25 +6220,25 @@
         <v>94</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D127" s="1">
         <v>2016</v>
       </c>
       <c r="E127" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="H127" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -6243,59 +6246,59 @@
         <v>95</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D128" s="1">
         <v>2016</v>
       </c>
       <c r="E128" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G128" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>646</v>
-      </c>
       <c r="H128" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="D129" s="1">
         <v>2016</v>
       </c>
       <c r="E129" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>652</v>
-      </c>
       <c r="H129" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>654</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>116</v>
@@ -6304,24 +6307,24 @@
         <v>2015</v>
       </c>
       <c r="E130" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="G130" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="G130" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="H130" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>659</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>116</v>
@@ -6330,24 +6333,24 @@
         <v>2015</v>
       </c>
       <c r="E131" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>662</v>
-      </c>
       <c r="H131" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>116</v>
@@ -6356,24 +6359,24 @@
         <v>2017</v>
       </c>
       <c r="E132" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>667</v>
-      </c>
       <c r="H132" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>116</v>
@@ -6382,24 +6385,24 @@
         <v>2017</v>
       </c>
       <c r="E133" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>672</v>
-      </c>
       <c r="H133" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>116</v>
@@ -6408,24 +6411,24 @@
         <v>2007</v>
       </c>
       <c r="E134" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="G134" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="G134" s="5" t="s">
-        <v>676</v>
-      </c>
       <c r="H134" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>116</v>
@@ -6434,24 +6437,24 @@
         <v>2017</v>
       </c>
       <c r="E135" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="G135" s="1" t="s">
-        <v>680</v>
-      </c>
       <c r="H135" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>116</v>
@@ -6460,16 +6463,16 @@
         <v>2017</v>
       </c>
       <c r="E136" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="G136" s="1" t="s">
-        <v>684</v>
-      </c>
       <c r="H136" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -6492,6 +6495,7 @@
     <hyperlink ref="G109" r:id="rId16"/>
     <hyperlink ref="G128" r:id="rId17"/>
     <hyperlink ref="G134" r:id="rId18"/>
+    <hyperlink ref="G33" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/resources/startups.xlsx
+++ b/resources/startups.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabiomeurerpaitra/Documents/Plug Creative/Plug/Habitat Bradesco/InovaBra/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevend/coding/fabio/InovaBra/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACF8F87-BE6A-3B41-9052-A369348CA481}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="440" windowWidth="38400" windowHeight="22420"/>
+    <workbookView xWindow="25600" yWindow="440" windowWidth="38400" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Junho_18" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="844">
   <si>
     <t>Nome</t>
   </si>
@@ -2541,12 +2542,33 @@
   </si>
   <si>
     <t>adriano.melito@myfirstipo.com.br</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Group 2</t>
+  </si>
+  <si>
+    <t>Group 1</t>
+  </si>
+  <si>
+    <t>Group 3</t>
+  </si>
+  <si>
+    <t>Group 4</t>
+  </si>
+  <si>
+    <t>Group 5</t>
+  </si>
+  <si>
+    <t>Group 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2928,11 +2950,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2948,7 +2970,7 @@
     <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2973,8 +2995,11 @@
       <c r="H1" s="3" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>114</v>
       </c>
@@ -2999,8 +3024,11 @@
       <c r="H2" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3025,8 +3053,11 @@
       <c r="H3" s="1" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3051,8 +3082,11 @@
       <c r="H4" s="1" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>432</v>
       </c>
@@ -3077,8 +3111,11 @@
       <c r="H5" s="1" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3103,8 +3140,11 @@
       <c r="H6" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -3129,8 +3169,11 @@
       <c r="H7" s="1" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3155,8 +3198,11 @@
       <c r="H8" s="1" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -3181,8 +3227,11 @@
       <c r="H9" s="1" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -3207,8 +3256,11 @@
       <c r="H10" s="1" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -3233,8 +3285,11 @@
       <c r="H11" s="1" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="I11" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3259,8 +3314,11 @@
       <c r="H12" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="I12" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -3285,8 +3343,11 @@
       <c r="H13" s="1" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I13" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -3311,8 +3372,11 @@
       <c r="H14" s="1" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -3337,8 +3401,11 @@
       <c r="H15" s="1" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -3363,8 +3430,11 @@
       <c r="H16" s="1" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I16" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>113</v>
       </c>
@@ -3389,8 +3459,11 @@
       <c r="H17" s="1" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -3415,8 +3488,11 @@
       <c r="H18" s="1" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="I18" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -3441,8 +3517,11 @@
       <c r="H19" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>459</v>
       </c>
@@ -3467,8 +3546,11 @@
       <c r="H20" s="1" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -3493,8 +3575,11 @@
       <c r="H21" s="1" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -3519,8 +3604,11 @@
       <c r="H22" s="1" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I22" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -3545,8 +3633,11 @@
       <c r="H23" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -3571,8 +3662,11 @@
       <c r="H24" s="1" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -3597,8 +3691,11 @@
       <c r="H25" s="1" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -3623,8 +3720,11 @@
       <c r="H26" s="1" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>112</v>
       </c>
@@ -3649,8 +3749,11 @@
       <c r="H27" s="1" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>111</v>
       </c>
@@ -3675,8 +3778,11 @@
       <c r="H28" s="1" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -3701,8 +3807,11 @@
       <c r="H29" s="1" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I29" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -3727,8 +3836,11 @@
       <c r="H30" s="1" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -3753,8 +3865,11 @@
       <c r="H31" s="1" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -3779,8 +3894,11 @@
       <c r="H32" s="1" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -3805,8 +3923,11 @@
       <c r="H33" s="1" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I33" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -3831,8 +3952,11 @@
       <c r="H34" s="1" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -3857,8 +3981,11 @@
       <c r="H35" s="1" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>110</v>
       </c>
@@ -3883,8 +4010,11 @@
       <c r="H36" s="1" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I36" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -3909,8 +4039,11 @@
       <c r="H37" s="1" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -3935,8 +4068,11 @@
       <c r="H38" s="1" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I38" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -3961,8 +4097,11 @@
       <c r="H39" s="1" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>486</v>
       </c>
@@ -3987,8 +4126,11 @@
       <c r="H40" s="1" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I40" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>109</v>
       </c>
@@ -4013,8 +4155,11 @@
       <c r="H41" s="1" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
@@ -4039,8 +4184,11 @@
       <c r="H42" s="1" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>496</v>
       </c>
@@ -4065,8 +4213,11 @@
       <c r="H43" s="1" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
@@ -4091,8 +4242,11 @@
       <c r="H44" s="1" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
@@ -4117,8 +4271,11 @@
       <c r="H45" s="1" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>40</v>
       </c>
@@ -4143,8 +4300,11 @@
       <c r="H46" s="1" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
@@ -4169,8 +4329,11 @@
       <c r="H47" s="1" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I47" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>42</v>
       </c>
@@ -4195,8 +4358,11 @@
       <c r="H48" s="1" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>43</v>
       </c>
@@ -4221,8 +4387,11 @@
       <c r="H49" s="1" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4416,11 @@
       <c r="H50" s="1" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I50" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>45</v>
       </c>
@@ -4273,8 +4445,11 @@
       <c r="H51" s="1" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>108</v>
       </c>
@@ -4299,8 +4474,11 @@
       <c r="H52" s="1" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I52" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4325,8 +4503,11 @@
       <c r="H53" s="1" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>506</v>
       </c>
@@ -4351,8 +4532,11 @@
       <c r="H54" s="1" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4377,8 +4561,11 @@
       <c r="H55" s="1" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="I55" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4403,8 +4590,11 @@
       <c r="H56" s="1" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>107</v>
       </c>
@@ -4429,8 +4619,11 @@
       <c r="H57" s="1" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>49</v>
       </c>
@@ -4455,8 +4648,11 @@
       <c r="H58" s="1" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I58" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>106</v>
       </c>
@@ -4481,8 +4677,11 @@
       <c r="H59" s="1" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I59" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>105</v>
       </c>
@@ -4507,8 +4706,11 @@
       <c r="H60" s="1" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>518</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="H61" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="I61" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>50</v>
       </c>
@@ -4559,8 +4764,11 @@
       <c r="H62" s="1" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I62" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>51</v>
       </c>
@@ -4585,8 +4793,11 @@
       <c r="H63" s="1" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>52</v>
       </c>
@@ -4611,8 +4822,11 @@
       <c r="H64" s="1" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>53</v>
       </c>
@@ -4637,8 +4851,11 @@
       <c r="H65" s="1" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>54</v>
       </c>
@@ -4663,8 +4880,11 @@
       <c r="H66" s="1" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>55</v>
       </c>
@@ -4689,8 +4909,11 @@
       <c r="H67" s="1" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
@@ -4715,8 +4938,11 @@
       <c r="H68" s="1" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I68" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>57</v>
       </c>
@@ -4741,8 +4967,11 @@
       <c r="H69" s="1" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>104</v>
       </c>
@@ -4767,8 +4996,11 @@
       <c r="H70" s="1" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>297</v>
       </c>
@@ -4793,8 +5025,11 @@
       <c r="H71" s="1" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>58</v>
       </c>
@@ -4819,8 +5054,11 @@
       <c r="H72" s="1" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I72" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>59</v>
       </c>
@@ -4845,8 +5083,11 @@
       <c r="H73" s="1" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="I73" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>60</v>
       </c>
@@ -4868,8 +5109,11 @@
       <c r="H74" s="1" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>61</v>
       </c>
@@ -4894,8 +5138,11 @@
       <c r="H75" s="1" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>62</v>
       </c>
@@ -4920,8 +5167,11 @@
       <c r="H76" s="1" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>63</v>
       </c>
@@ -4946,8 +5196,11 @@
       <c r="H77" s="1" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>64</v>
       </c>
@@ -4972,8 +5225,11 @@
       <c r="H78" s="1" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>65</v>
       </c>
@@ -4998,8 +5254,11 @@
       <c r="H79" s="1" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>66</v>
       </c>
@@ -5024,8 +5283,11 @@
       <c r="H80" s="1" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I80" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>67</v>
       </c>
@@ -5050,8 +5312,11 @@
       <c r="H81" s="1" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>68</v>
       </c>
@@ -5076,8 +5341,11 @@
       <c r="H82" s="1" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>546</v>
       </c>
@@ -5102,8 +5370,11 @@
       <c r="H83" s="1" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I83" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>551</v>
       </c>
@@ -5125,8 +5396,11 @@
       <c r="H84" s="1" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>103</v>
       </c>
@@ -5151,8 +5425,11 @@
       <c r="H85" s="1" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I85" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>559</v>
       </c>
@@ -5177,8 +5454,11 @@
       <c r="H86" s="1" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>564</v>
       </c>
@@ -5203,8 +5483,11 @@
       <c r="H87" s="1" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>102</v>
       </c>
@@ -5229,8 +5512,11 @@
       <c r="H88" s="1" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
@@ -5255,8 +5541,11 @@
       <c r="H89" s="1" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>69</v>
       </c>
@@ -5281,8 +5570,11 @@
       <c r="H90" s="1" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>70</v>
       </c>
@@ -5307,8 +5599,11 @@
       <c r="H91" s="1" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>100</v>
       </c>
@@ -5333,8 +5628,11 @@
       <c r="H92" s="1" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>71</v>
       </c>
@@ -5359,8 +5657,11 @@
       <c r="H93" s="1" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>72</v>
       </c>
@@ -5385,8 +5686,11 @@
       <c r="H94" s="1" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>73</v>
       </c>
@@ -5411,8 +5715,11 @@
       <c r="H95" s="1" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I95" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>74</v>
       </c>
@@ -5437,8 +5744,11 @@
       <c r="H96" s="1" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="I96" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>75</v>
       </c>
@@ -5463,8 +5773,11 @@
       <c r="H97" s="1" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>76</v>
       </c>
@@ -5489,8 +5802,11 @@
       <c r="H98" s="1" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>77</v>
       </c>
@@ -5515,8 +5831,11 @@
       <c r="H99" s="1" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="I99" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -5538,8 +5857,11 @@
       <c r="H100" s="1" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>584</v>
       </c>
@@ -5564,8 +5886,11 @@
       <c r="H101" s="1" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>98</v>
       </c>
@@ -5590,8 +5915,11 @@
       <c r="H102" s="1" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>592</v>
       </c>
@@ -5616,8 +5944,11 @@
       <c r="H103" s="1" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>78</v>
       </c>
@@ -5642,8 +5973,11 @@
       <c r="H104" s="1" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>79</v>
       </c>
@@ -5668,8 +6002,11 @@
       <c r="H105" s="1" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>80</v>
       </c>
@@ -5694,8 +6031,11 @@
       <c r="H106" s="1" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I106" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>81</v>
       </c>
@@ -5720,8 +6060,11 @@
       <c r="H107" s="1" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>82</v>
       </c>
@@ -5746,8 +6089,11 @@
       <c r="H108" s="1" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>97</v>
       </c>
@@ -5772,8 +6118,11 @@
       <c r="H109" s="1" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>83</v>
       </c>
@@ -5798,8 +6147,11 @@
       <c r="H110" s="1" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>84</v>
       </c>
@@ -5824,8 +6176,11 @@
       <c r="H111" s="1" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6205,11 @@
       <c r="H112" s="1" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>86</v>
       </c>
@@ -5876,8 +6234,11 @@
       <c r="H113" s="1" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="I113" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>610</v>
       </c>
@@ -5902,8 +6263,11 @@
       <c r="H114" s="1" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>615</v>
       </c>
@@ -5928,8 +6292,11 @@
       <c r="H115" s="1" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>87</v>
       </c>
@@ -5954,8 +6321,11 @@
       <c r="H116" s="1" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>88</v>
       </c>
@@ -5980,8 +6350,11 @@
       <c r="H117" s="1" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>89</v>
       </c>
@@ -6006,8 +6379,11 @@
       <c r="H118" s="1" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>90</v>
       </c>
@@ -6032,8 +6408,11 @@
       <c r="H119" s="1" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>625</v>
       </c>
@@ -6058,8 +6437,11 @@
       <c r="H120" s="1" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I120" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>91</v>
       </c>
@@ -6084,8 +6466,11 @@
       <c r="H121" s="1" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>92</v>
       </c>
@@ -6110,8 +6495,11 @@
       <c r="H122" s="1" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>93</v>
       </c>
@@ -6136,8 +6524,11 @@
       <c r="H123" s="1" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>632</v>
       </c>
@@ -6162,8 +6553,11 @@
       <c r="H124" s="1" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I124" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>96</v>
       </c>
@@ -6188,8 +6582,11 @@
       <c r="H125" s="1" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I125" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>640</v>
       </c>
@@ -6214,8 +6611,11 @@
       <c r="H126" s="1" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>94</v>
       </c>
@@ -6240,8 +6640,11 @@
       <c r="H127" s="1" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I127" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>95</v>
       </c>
@@ -6266,8 +6669,11 @@
       <c r="H128" s="1" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>646</v>
       </c>
@@ -6292,8 +6698,11 @@
       <c r="H129" s="1" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I129" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>652</v>
       </c>
@@ -6318,8 +6727,11 @@
       <c r="H130" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I130" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>657</v>
       </c>
@@ -6344,8 +6756,11 @@
       <c r="H131" s="1" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I131" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>662</v>
       </c>
@@ -6370,8 +6785,11 @@
       <c r="H132" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I132" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>668</v>
       </c>
@@ -6396,8 +6814,11 @@
       <c r="H133" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I133" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>684</v>
       </c>
@@ -6422,8 +6843,11 @@
       <c r="H134" s="1" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I134" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>685</v>
       </c>
@@ -6448,8 +6872,11 @@
       <c r="H135" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I135" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>686</v>
       </c>
@@ -6474,28 +6901,31 @@
       <c r="H136" s="1" t="s">
         <v>786</v>
       </c>
+      <c r="I136" s="1" t="s">
+        <v>843</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G19" r:id="rId1"/>
-    <hyperlink ref="B20" r:id="rId2"/>
-    <hyperlink ref="G20" r:id="rId3"/>
-    <hyperlink ref="B30" r:id="rId4"/>
-    <hyperlink ref="B33" r:id="rId5"/>
-    <hyperlink ref="G35" r:id="rId6"/>
-    <hyperlink ref="B39" r:id="rId7"/>
-    <hyperlink ref="B40" r:id="rId8"/>
-    <hyperlink ref="G40" r:id="rId9"/>
-    <hyperlink ref="G41" r:id="rId10"/>
-    <hyperlink ref="G63" r:id="rId11"/>
-    <hyperlink ref="G67" r:id="rId12"/>
-    <hyperlink ref="G68" r:id="rId13"/>
-    <hyperlink ref="G85" r:id="rId14"/>
-    <hyperlink ref="G91" r:id="rId15"/>
-    <hyperlink ref="G109" r:id="rId16"/>
-    <hyperlink ref="G128" r:id="rId17"/>
-    <hyperlink ref="G134" r:id="rId18"/>
-    <hyperlink ref="G33" r:id="rId19"/>
+    <hyperlink ref="G19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B33" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G35" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B39" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B40" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G40" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G41" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G63" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G67" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G68" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G85" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G91" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G109" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G128" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G134" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G33" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
